--- a/spring/game_schedule.xlsx
+++ b/spring/game_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zbell/Documents/GitHub/Optimization_Project/spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7456DA1C-01C3-9242-A778-8347E809A8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{58DF64F7-A797-2345-B182-583AFA8537A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16400"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>W1</t>
   </si>
@@ -157,7 +157,10 @@
     <t>Su</t>
   </si>
   <si>
-    <t>Game Frequency</t>
+    <t>GAME FREQUENCY</t>
+  </si>
+  <si>
+    <t>opt =</t>
   </si>
 </sst>
 </file>
@@ -488,13 +491,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,8 +691,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -708,13 +712,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1072,1041 +1076,1053 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="3.83203125" style="6" customWidth="1"/>
-    <col min="4" max="8" width="3.83203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="3.83203125" style="7" customWidth="1"/>
+    <col min="4" max="8" width="3.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
         <v>3</v>
       </c>
-      <c r="F3" s="5">
-        <v>4</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="F3" s="6">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6">
         <v>3</v>
       </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>4</v>
-      </c>
-      <c r="G4" s="5">
-        <v>4</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5">
-        <v>4</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6">
+        <v>4</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>4</v>
-      </c>
-      <c r="G6" s="5">
-        <v>4</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>4</v>
-      </c>
-      <c r="G7" s="5">
-        <v>4</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6">
+        <v>4</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6">
+        <v>4</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9">
-        <v>2</v>
-      </c>
-      <c r="C8" s="9">
-        <v>2</v>
-      </c>
-      <c r="D8" s="8">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
         <v>3</v>
       </c>
-      <c r="G8" s="5">
-        <v>4</v>
-      </c>
-      <c r="H8" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="G8" s="6">
+        <v>4</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="8">
-        <v>2</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>2</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6">
         <v>3</v>
       </c>
-      <c r="H9" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="H9" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5">
-        <v>4</v>
-      </c>
-      <c r="G10" s="5">
-        <v>4</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>4</v>
+      </c>
+      <c r="G10" s="6">
+        <v>4</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
-        <v>4</v>
-      </c>
-      <c r="G11" s="5">
-        <v>4</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>4</v>
+      </c>
+      <c r="G11" s="6">
+        <v>4</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>4</v>
-      </c>
-      <c r="G12" s="5">
-        <v>4</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>4</v>
+      </c>
+      <c r="G12" s="6">
+        <v>4</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="5">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>4</v>
-      </c>
-      <c r="G13" s="5">
-        <v>4</v>
-      </c>
-      <c r="H13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>4</v>
+      </c>
+      <c r="G13" s="6">
+        <v>4</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="9">
-        <v>2</v>
-      </c>
-      <c r="C14" s="9">
-        <v>2</v>
-      </c>
-      <c r="D14" s="8">
-        <v>2</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
         <v>3</v>
       </c>
-      <c r="G14" s="5">
-        <v>4</v>
-      </c>
-      <c r="H14" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="G14" s="6">
+        <v>4</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2</v>
+      </c>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="9">
-        <v>2</v>
-      </c>
-      <c r="C15" s="9">
-        <v>2</v>
-      </c>
-      <c r="D15" s="8">
-        <v>2</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
         <v>3</v>
       </c>
-      <c r="G15" s="5">
-        <v>4</v>
-      </c>
-      <c r="H15" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="G15" s="6">
+        <v>4</v>
+      </c>
+      <c r="H15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="9">
-        <v>2</v>
-      </c>
-      <c r="C16" s="9">
-        <v>2</v>
-      </c>
-      <c r="D16" s="8">
-        <v>2</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="B16" s="8">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
         <v>3</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="6">
         <v>3</v>
       </c>
-      <c r="H16" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="H16" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>4</v>
-      </c>
-      <c r="G17" s="5">
-        <v>4</v>
-      </c>
-      <c r="H17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>4</v>
+      </c>
+      <c r="G17" s="6">
+        <v>4</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>46</v>
+      </c>
+      <c r="O17">
+        <v>121.77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="5">
-        <v>0</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <v>4</v>
-      </c>
-      <c r="G18" s="5">
-        <v>4</v>
-      </c>
-      <c r="H18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>4</v>
+      </c>
+      <c r="G18" s="6">
+        <v>4</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="5">
-        <v>0</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>4</v>
-      </c>
-      <c r="G19" s="5">
-        <v>4</v>
-      </c>
-      <c r="H19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="B19" s="6">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>4</v>
+      </c>
+      <c r="G19" s="6">
+        <v>4</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="5">
-        <v>0</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5">
-        <v>4</v>
-      </c>
-      <c r="G20" s="5">
-        <v>4</v>
-      </c>
-      <c r="H20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="B20" s="6">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <v>4</v>
+      </c>
+      <c r="G20" s="6">
+        <v>4</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="5">
-        <v>0</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5">
-        <v>4</v>
-      </c>
-      <c r="G21" s="5">
-        <v>4</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="B21" s="6">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>4</v>
+      </c>
+      <c r="G21" s="6">
+        <v>4</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="5">
-        <v>0</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5">
-        <v>4</v>
-      </c>
-      <c r="G22" s="5">
-        <v>4</v>
-      </c>
-      <c r="H22" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="B22" s="6">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>4</v>
+      </c>
+      <c r="G22" s="6">
+        <v>4</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="5">
-        <v>0</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1</v>
-      </c>
-      <c r="F23" s="5">
-        <v>4</v>
-      </c>
-      <c r="G23" s="5">
-        <v>4</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="B23" s="6">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
+        <v>4</v>
+      </c>
+      <c r="G23" s="6">
+        <v>4</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="5">
-        <v>0</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0</v>
-      </c>
-      <c r="D24" s="5">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5">
-        <v>1</v>
-      </c>
-      <c r="F24" s="5">
-        <v>4</v>
-      </c>
-      <c r="G24" s="5">
-        <v>4</v>
-      </c>
-      <c r="H24" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="B24" s="6">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>4</v>
+      </c>
+      <c r="G24" s="6">
+        <v>4</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="5">
-        <v>0</v>
-      </c>
-      <c r="C25" s="5">
-        <v>0</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-      <c r="F25" s="5">
-        <v>4</v>
-      </c>
-      <c r="G25" s="5">
-        <v>4</v>
-      </c>
-      <c r="H25" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="B25" s="6">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6">
+        <v>4</v>
+      </c>
+      <c r="G25" s="6">
+        <v>4</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="5">
-        <v>0</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5">
-        <v>1</v>
-      </c>
-      <c r="F26" s="5">
-        <v>4</v>
-      </c>
-      <c r="G26" s="5">
-        <v>4</v>
-      </c>
-      <c r="H26" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6">
+        <v>4</v>
+      </c>
+      <c r="G26" s="6">
+        <v>4</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="5">
-        <v>0</v>
-      </c>
-      <c r="C27" s="5">
-        <v>0</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1</v>
-      </c>
-      <c r="F27" s="5">
-        <v>4</v>
-      </c>
-      <c r="G27" s="5">
-        <v>4</v>
-      </c>
-      <c r="H27" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="B27" s="6">
+        <v>0</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6">
+        <v>4</v>
+      </c>
+      <c r="G27" s="6">
+        <v>4</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="5">
-        <v>0</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5">
-        <v>1</v>
-      </c>
-      <c r="F28" s="5">
-        <v>4</v>
-      </c>
-      <c r="G28" s="5">
-        <v>4</v>
-      </c>
-      <c r="H28" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="B28" s="6">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6">
+        <v>4</v>
+      </c>
+      <c r="G28" s="6">
+        <v>4</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="5">
-        <v>0</v>
-      </c>
-      <c r="C29" s="5">
-        <v>0</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1</v>
-      </c>
-      <c r="F29" s="5">
-        <v>4</v>
-      </c>
-      <c r="G29" s="5">
-        <v>4</v>
-      </c>
-      <c r="H29" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="B29" s="6">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
+        <v>4</v>
+      </c>
+      <c r="G29" s="6">
+        <v>4</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="5">
-        <v>0</v>
-      </c>
-      <c r="C30" s="5">
-        <v>0</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5">
-        <v>1</v>
-      </c>
-      <c r="F30" s="5">
-        <v>4</v>
-      </c>
-      <c r="G30" s="5">
-        <v>4</v>
-      </c>
-      <c r="H30" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="B30" s="6">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6">
+        <v>4</v>
+      </c>
+      <c r="G30" s="6">
+        <v>4</v>
+      </c>
+      <c r="H30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="5">
-        <v>0</v>
-      </c>
-      <c r="C31" s="5">
-        <v>0</v>
-      </c>
-      <c r="D31" s="5">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5">
-        <v>1</v>
-      </c>
-      <c r="F31" s="5">
-        <v>4</v>
-      </c>
-      <c r="G31" s="5">
-        <v>4</v>
-      </c>
-      <c r="H31" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="B31" s="6">
+        <v>0</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
+        <v>4</v>
+      </c>
+      <c r="G31" s="6">
+        <v>4</v>
+      </c>
+      <c r="H31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="5">
-        <v>0</v>
-      </c>
-      <c r="C32" s="5">
-        <v>0</v>
-      </c>
-      <c r="D32" s="5">
-        <v>0</v>
-      </c>
-      <c r="E32" s="5">
-        <v>1</v>
-      </c>
-      <c r="F32" s="5">
-        <v>4</v>
-      </c>
-      <c r="G32" s="5">
-        <v>4</v>
-      </c>
-      <c r="H32" s="5">
+      <c r="B32" s="6">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
+        <v>4</v>
+      </c>
+      <c r="G32" s="6">
+        <v>4</v>
+      </c>
+      <c r="H32" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="5">
-        <v>0</v>
-      </c>
-      <c r="C33" s="5">
-        <v>0</v>
-      </c>
-      <c r="D33" s="5">
-        <v>0</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1</v>
-      </c>
-      <c r="F33" s="5">
-        <v>4</v>
-      </c>
-      <c r="G33" s="5">
-        <v>4</v>
-      </c>
-      <c r="H33" s="5">
+      <c r="B33" s="6">
+        <v>0</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
+        <v>4</v>
+      </c>
+      <c r="G33" s="6">
+        <v>4</v>
+      </c>
+      <c r="H33" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="5">
-        <v>0</v>
-      </c>
-      <c r="C34" s="5">
-        <v>0</v>
-      </c>
-      <c r="D34" s="5">
-        <v>0</v>
-      </c>
-      <c r="E34" s="5">
-        <v>1</v>
-      </c>
-      <c r="F34" s="5">
-        <v>4</v>
-      </c>
-      <c r="G34" s="5">
-        <v>4</v>
-      </c>
-      <c r="H34" s="5">
+      <c r="B34" s="6">
+        <v>0</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
+        <v>4</v>
+      </c>
+      <c r="G34" s="6">
+        <v>4</v>
+      </c>
+      <c r="H34" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="5">
-        <v>0</v>
-      </c>
-      <c r="C35" s="5">
-        <v>0</v>
-      </c>
-      <c r="D35" s="5">
-        <v>0</v>
-      </c>
-      <c r="E35" s="5">
-        <v>1</v>
-      </c>
-      <c r="F35" s="5">
-        <v>4</v>
-      </c>
-      <c r="G35" s="5">
-        <v>4</v>
-      </c>
-      <c r="H35" s="5">
+      <c r="B35" s="6">
+        <v>0</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
+        <v>4</v>
+      </c>
+      <c r="G35" s="6">
+        <v>4</v>
+      </c>
+      <c r="H35" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="5">
-        <v>0</v>
-      </c>
-      <c r="C36" s="5">
-        <v>0</v>
-      </c>
-      <c r="D36" s="5">
-        <v>0</v>
-      </c>
-      <c r="E36" s="5">
-        <v>1</v>
-      </c>
-      <c r="F36" s="5">
-        <v>4</v>
-      </c>
-      <c r="G36" s="5">
-        <v>4</v>
-      </c>
-      <c r="H36" s="5">
+      <c r="B36" s="6">
+        <v>0</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
+        <v>4</v>
+      </c>
+      <c r="G36" s="6">
+        <v>4</v>
+      </c>
+      <c r="H36" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="5">
-        <v>0</v>
-      </c>
-      <c r="C37" s="5">
-        <v>0</v>
-      </c>
-      <c r="D37" s="5">
-        <v>0</v>
-      </c>
-      <c r="E37" s="5">
-        <v>1</v>
-      </c>
-      <c r="F37" s="5">
-        <v>4</v>
-      </c>
-      <c r="G37" s="5">
-        <v>4</v>
-      </c>
-      <c r="H37" s="5">
+      <c r="B37" s="6">
+        <v>0</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6">
+        <v>4</v>
+      </c>
+      <c r="G37" s="6">
+        <v>4</v>
+      </c>
+      <c r="H37" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="5">
-        <v>0</v>
-      </c>
-      <c r="C38" s="5">
-        <v>0</v>
-      </c>
-      <c r="D38" s="5">
-        <v>0</v>
-      </c>
-      <c r="E38" s="5">
-        <v>1</v>
-      </c>
-      <c r="F38" s="5">
-        <v>4</v>
-      </c>
-      <c r="G38" s="5">
-        <v>4</v>
-      </c>
-      <c r="H38" s="5">
+      <c r="B38" s="6">
+        <v>0</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1</v>
+      </c>
+      <c r="F38" s="6">
+        <v>4</v>
+      </c>
+      <c r="G38" s="6">
+        <v>4</v>
+      </c>
+      <c r="H38" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="5">
-        <v>0</v>
-      </c>
-      <c r="C39" s="5">
-        <v>0</v>
-      </c>
-      <c r="D39" s="5">
-        <v>0</v>
-      </c>
-      <c r="E39" s="5">
-        <v>1</v>
-      </c>
-      <c r="F39" s="5">
-        <v>4</v>
-      </c>
-      <c r="G39" s="5">
-        <v>4</v>
-      </c>
-      <c r="H39" s="5">
+      <c r="B39" s="6">
+        <v>0</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6">
+        <v>4</v>
+      </c>
+      <c r="G39" s="6">
+        <v>4</v>
+      </c>
+      <c r="H39" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="5">
-        <v>0</v>
-      </c>
-      <c r="C40" s="5">
-        <v>0</v>
-      </c>
-      <c r="D40" s="5">
-        <v>0</v>
-      </c>
-      <c r="E40" s="5">
-        <v>1</v>
-      </c>
-      <c r="F40" s="5">
+      <c r="B40" s="6">
+        <v>0</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1</v>
+      </c>
+      <c r="F40" s="6">
         <v>3</v>
       </c>
-      <c r="G40" s="5">
-        <v>4</v>
-      </c>
-      <c r="H40" s="5">
-        <v>2</v>
+      <c r="G40" s="6">
+        <v>4</v>
+      </c>
+      <c r="H40" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G62" s="6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2114,7 +2130,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="E3:H40">
+  <conditionalFormatting sqref="E3:H330">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/spring/game_schedule.xlsx
+++ b/spring/game_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zbell/Documents/GitHub/Optimization_Project/spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{58DF64F7-A797-2345-B182-583AFA8537A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3BC10F38-F810-FF45-AD73-EC29CC16F69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16400"/>
   </bookViews>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1358,6 +1358,9 @@
       <c r="H11" s="6">
         <v>1</v>
       </c>
+      <c r="O11">
+        <v>124.56</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1383,6 +1386,10 @@
       </c>
       <c r="H12" s="6">
         <v>1</v>
+      </c>
+      <c r="O12">
+        <f>O11-2/10-6/9-8/8-4/7</f>
+        <v>122.12190476190476</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
